--- a/config/excel/BattleWave.xlsx
+++ b/config/excel/BattleWave.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BFC54D-EA77-45AE-982F-A76B77B6AAD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9A94C5-90A1-4D38-824F-94B956092821}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="StageWave" sheetId="1" r:id="rId1"/>
+    <sheet name="BattleWave" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,43 +67,336 @@
     <t>关卡ID</t>
   </si>
   <si>
-    <t>场景id</t>
-  </si>
-  <si>
-    <t>战斗区域ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物组id</t>
-  </si>
-  <si>
-    <t>第X个表示第X波的场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第X个表示第X个的战斗区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第X个表示第X个的怪物组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sceneId</t>
-  </si>
-  <si>
-    <t>battleView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitGroupId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗区域ID</t>
-  </si>
-  <si>
-    <t>int32</t>
+    <t>单位1坐标x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位1坐标z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位1COM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位1旋转值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位2坐标x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位2坐标z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位2COM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位2旋转值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位3坐标x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位3坐标z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位1
+生成坐标x
+不配表示没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位1
+生成坐标z
+不配表示没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位1
+初始COM
+仅敌方有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位1
+旋转值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位2
+生成坐标x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位2
+生成坐标z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位2
+初始COM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位2
+旋转值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位3
+生成坐标x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位3
+生成坐标z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位3
+初始COM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位3
+旋转值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位4
+生成坐标x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位4
+生成坐标z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位4
+初始COM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位4
+旋转值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位5
+生成坐标x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位5
+生成坐标z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位5
+初始COM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位5
+旋转值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位6
+生成坐标x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位6
+生成坐标z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位6
+初始COM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位6
+旋转值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位数组
+生成坐标x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位数组
+生成坐标z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位
+初始COM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位
+初始旋转值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PositionX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PositionZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitalCom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位3COM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位3旋转值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位4坐标x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位4坐标z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位4COM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位4旋转值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位5坐标x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位5坐标z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位5COM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位5旋转值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位6旋转值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位6旋转值2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位6旋转值3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位6旋转值4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物ID1</t>
+  </si>
+  <si>
+    <t>怪物ID2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物ID3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物ID</t>
+  </si>
+  <si>
+    <t>怪物ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物ID4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物ID5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物ID6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物ID组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位坐标x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位坐标z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位初始COM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位初始旋转值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位x坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位z坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位旋转值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +404,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,15 +429,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -205,17 +489,6 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color theme="1"/>
       </right>
       <top/>
@@ -267,11 +540,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -282,62 +568,663 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+  <dxfs count="41">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -445,13 +1332,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:F25" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="C1:F25" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="关卡id" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{8D8BEAB1-E54C-43E4-9BE7-95673BF8BA42}" name="场景id" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{82A72EE8-6D58-4F08-BA8E-C92FBA53BBC3}" name="战斗区域ID" dataDxfId="1"/>
-    <tableColumn id="35" xr3:uid="{09304C24-8E26-485B-A412-9F75E089BDA9}" name="怪物组id" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AL15" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+  <autoFilter ref="C1:AL15" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+  <tableColumns count="36">
+    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="关卡id" dataDxfId="35"/>
+    <tableColumn id="32" xr3:uid="{62FC9BE9-D35E-4487-BE06-E09088B41B8D}" name="怪物ID1" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{44730D1B-D20F-4AD7-84A6-F6BF1F683D3E}" name="单位1坐标x" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{68D70AEF-0F1F-4533-A589-A496AA5DF0A0}" name="单位1坐标z" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{B2309FED-E46C-4466-AA7D-B37EBCF9F2CF}" name="单位1COM" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{EC503F46-EBEB-43BE-80F0-7F905084FC43}" name="单位1旋转值" dataDxfId="30"/>
+    <tableColumn id="33" xr3:uid="{B26DC585-E57F-44B2-9DA1-8BA0F9B81659}" name="怪物ID2" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{10B28E60-FEC0-4F85-8AD2-B7693530F290}" name="单位2坐标x" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{7A4EC61B-C598-414D-AB99-37431004D5EB}" name="单位2坐标z" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{C6D36BFB-3293-4938-9B52-D03E5C56E3BA}" name="单位2COM" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{89014E33-4CD1-4680-A85A-136613865645}" name="单位2旋转值" dataDxfId="25"/>
+    <tableColumn id="36" xr3:uid="{FBAAF47E-BFB7-438F-86E9-EB42C3FFFEEB}" name="怪物ID3" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{50777918-71CA-4F8C-A361-801473D1382F}" name="单位3坐标x" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{53931140-E440-4F64-B46D-3F610E3A4E22}" name="单位3坐标z" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{124BE23B-7E65-4CF9-B092-9753D4FB0381}" name="单位3COM" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{A54982F0-21CA-4DDD-9C34-14392FD7F4B0}" name="单位3旋转值" dataDxfId="20"/>
+    <tableColumn id="37" xr3:uid="{22410255-8CDB-47BD-9667-04D874432706}" name="怪物ID4" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{54E36D82-6044-4895-B66D-3AD220BF9850}" name="单位4坐标x" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{E2AA58C1-6BAE-4195-A61B-8AF6A41B5F85}" name="单位4坐标z" dataDxfId="17"/>
+    <tableColumn id="16" xr3:uid="{6B9930EC-9F1A-44E1-911C-EE8EA30BB629}" name="单位4COM" dataDxfId="16"/>
+    <tableColumn id="17" xr3:uid="{4BA151C5-F592-418F-8F6A-BC5BB42B9DE5}" name="单位4旋转值" dataDxfId="15"/>
+    <tableColumn id="38" xr3:uid="{621FDC21-7421-4D80-B903-0BA0BB748EC3}" name="怪物ID5" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{6303217B-62C3-47DE-930A-1BAFDC2EDC54}" name="单位5坐标x" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{884F6BFF-24C2-44D8-8BEA-702D7D45AE74}" name="单位5坐标z" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{179A47D8-02D0-45F2-9008-AF26170BB9C0}" name="单位5COM" dataDxfId="11"/>
+    <tableColumn id="21" xr3:uid="{54454ED1-4B30-4CE6-B39E-5A0232FA6131}" name="单位5旋转值" dataDxfId="10"/>
+    <tableColumn id="39" xr3:uid="{21095C80-77F2-43A5-BCDA-FF5AC04F617E}" name="怪物ID6" dataDxfId="9"/>
+    <tableColumn id="24" xr3:uid="{B9AC10BB-642D-4F45-9504-867EED1287ED}" name="单位6旋转值" dataDxfId="8"/>
+    <tableColumn id="25" xr3:uid="{B75C753B-9048-4FB2-A782-96086AC6801F}" name="单位6旋转值2" dataDxfId="7"/>
+    <tableColumn id="26" xr3:uid="{9506790B-4A72-43E0-A206-8F1139CE5123}" name="单位6旋转值3" dataDxfId="6"/>
+    <tableColumn id="27" xr3:uid="{5FB3B281-62C1-469B-BD25-ADF92539A260}" name="单位6旋转值4" dataDxfId="5"/>
+    <tableColumn id="34" xr3:uid="{BEFE4F5B-0AD0-4443-B7C9-C596E5C11339}" name="怪物ID组" dataDxfId="4">
+      <calculatedColumnFormula>IF(D2="","",D2)&amp;IF(I2="","",","&amp;I2)&amp;IF(N2="","",","&amp;N2)&amp;IF(S2="","",","&amp;S2)&amp;IF(X2="","",","&amp;X2)&amp;IF(AC2="","",","&amp;AC2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" xr3:uid="{C921BCD1-DB94-406B-B343-ACE727CBA0F3}" name="单位坐标x" dataDxfId="3"/>
+    <tableColumn id="29" xr3:uid="{163FE00F-47EF-4C54-9C23-7165FBB35D80}" name="单位坐标z" dataDxfId="2"/>
+    <tableColumn id="30" xr3:uid="{7C736AEB-1285-4D69-8031-BEB8B170ADAA}" name="单位初始COM" dataDxfId="1"/>
+    <tableColumn id="31" xr3:uid="{76DFADA7-A0C0-4892-8C90-644548660D5C}" name="单位初始旋转值" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -720,283 +1641,1162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.625" style="1"/>
-    <col min="4" max="6" width="12.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.625" style="1"/>
+    <col min="1" max="2" width="10.625" style="1"/>
+    <col min="3" max="3" width="10.625" style="9"/>
+    <col min="4" max="4" width="12.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="33" width="14.5" style="1" customWidth="1"/>
+    <col min="34" max="34" width="46.625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="14.5" style="1" customWidth="1"/>
+    <col min="36" max="36" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>16</v>
+      <c r="C2" s="3"/>
+      <c r="D2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>19</v>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>13</v>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL4" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="10"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>21</v>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="4">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C7" s="3">
         <v>100101</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="3">
+        <v>1010101</v>
+      </c>
+      <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="4">
-        <v>100101</v>
-      </c>
-      <c r="F7" s="4">
-        <v>100101</v>
+      <c r="F7" s="3">
+        <v>-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-90</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1010102</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M7" s="3">
+        <v>-90</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3" t="str">
+        <f t="shared" ref="AH7:AH15" si="0">IF(D7="","",D7)&amp;IF(I7="","",","&amp;I7)&amp;IF(N7="","",","&amp;N7)&amp;IF(S7="","",","&amp;S7)&amp;IF(X7="","",","&amp;X7)&amp;IF(AC7="","",","&amp;AC7)</f>
+        <v>1010101,1010102</v>
+      </c>
+      <c r="AI7" s="3" t="str">
+        <f t="shared" ref="AI7:AL14" si="1">IF(E7="","",E7)&amp;IF(J7="","",","&amp;J7)&amp;IF(O7="","",","&amp;O7)&amp;IF(T7="","",","&amp;T7)&amp;IF(Y7="","",","&amp;Y7)&amp;IF(AD7="","",","&amp;AD7)</f>
+        <v>1,1</v>
+      </c>
+      <c r="AJ7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-2,2</v>
+      </c>
+      <c r="AK7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.4,0.6</v>
+      </c>
+      <c r="AL7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-90,-90</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="4">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C8" s="3">
         <v>100201</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="3">
+        <v>1010201</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-90</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1010202</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M8" s="3">
+        <v>-90</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1010203</v>
+      </c>
+      <c r="O8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="4">
-        <v>100201</v>
-      </c>
-      <c r="F8" s="4">
-        <v>100201</v>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="R8" s="3">
+        <v>-90</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1010201,1010202,1010203</v>
+      </c>
+      <c r="AI8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>2.5,2.5,1</v>
+      </c>
+      <c r="AJ8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-2,2,0</v>
+      </c>
+      <c r="AK8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.4,0.6,0.9</v>
+      </c>
+      <c r="AL8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-90,-90,-90</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="4">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C9" s="3">
         <v>100301</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="3">
+        <v>1010301</v>
+      </c>
+      <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="4">
-        <v>100301</v>
-      </c>
-      <c r="F9" s="4">
-        <v>100301</v>
+      <c r="F9" s="3">
+        <v>-5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-90</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1010302</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>-90</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1010303</v>
+      </c>
+      <c r="O9" s="3">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
+        <v>-2</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="R9" s="3">
+        <v>-90</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1010304</v>
+      </c>
+      <c r="T9" s="3">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
+        <v>2</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>-90</v>
+      </c>
+      <c r="X9" s="3">
+        <v>1010305</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>-90</v>
+      </c>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1010301,1010302,1010303,1010304,1010305</v>
+      </c>
+      <c r="AI9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,5,5,1</v>
+      </c>
+      <c r="AJ9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-5,5,-2,2,0</v>
+      </c>
+      <c r="AK9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.6,0.4,0.2,0,0</v>
+      </c>
+      <c r="AL9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-90,-90,-90,-90,-90</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="4">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C10" s="3">
         <v>100401</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="3">
+        <v>1010401</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-90</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1010401</v>
+      </c>
+      <c r="AI10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AJ10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C11" s="3">
+        <v>100402</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1010402</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-90</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1010402</v>
+      </c>
+      <c r="J11" s="3">
+        <v>5</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-3</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M11" s="3">
+        <v>-90</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1010402</v>
+      </c>
+      <c r="O11" s="3">
+        <v>2</v>
+      </c>
+      <c r="P11" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R11" s="3">
+        <v>-90</v>
+      </c>
+      <c r="S11" s="3">
+        <v>1010402</v>
+      </c>
+      <c r="T11" s="3">
+        <v>2</v>
+      </c>
+      <c r="U11" s="3">
+        <v>-5</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="W11" s="3">
+        <v>-90</v>
+      </c>
+      <c r="X11" s="3">
+        <v>1010402</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>6</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>-90</v>
+      </c>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3" t="str">
+        <f t="shared" ref="AH11" si="2">IF(D11="","",D11)&amp;IF(I11="","",","&amp;I11)&amp;IF(N11="","",","&amp;N11)&amp;IF(S11="","",","&amp;S11)&amp;IF(X11="","",","&amp;X11)&amp;IF(AC11="","",","&amp;AC11)</f>
+        <v>1010402,1010402,1010402,1010402,1010402</v>
+      </c>
+      <c r="AI11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>5,5,2,2,6</v>
+      </c>
+      <c r="AJ11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>3,-3,5,-5,0</v>
+      </c>
+      <c r="AK11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.3,0.6,0.4,0.5,0</v>
+      </c>
+      <c r="AL11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-90,-90,-90,-90,-90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C12" s="3">
+        <v>100501</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1010501</v>
+      </c>
+      <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="4">
-        <v>100401</v>
-      </c>
-      <c r="F10" s="4">
-        <v>100401</v>
+      <c r="F12" s="3">
+        <v>-5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H12" s="3">
+        <v>-90</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1010502</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M12" s="3">
+        <v>-90</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1010503</v>
+      </c>
+      <c r="O12" s="3">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3">
+        <v>-2</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="R12" s="3">
+        <v>-90</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1010504</v>
+      </c>
+      <c r="T12" s="3">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3">
+        <v>2</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>-90</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1010505</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>-90</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>1010506</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>-90</v>
+      </c>
+      <c r="AH12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1010501,1010502,1010503,1010504,1010505,1010506</v>
+      </c>
+      <c r="AI12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,5,5,1,0</v>
+      </c>
+      <c r="AJ12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-5,5,-2,2,0,0</v>
+      </c>
+      <c r="AK12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.6,0.4,0.2,0,0,0</v>
+      </c>
+      <c r="AL12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-90,-90,-90,-90,-90,-90</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="4">
-        <v>100501</v>
-      </c>
-      <c r="D11" s="13">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>100501</v>
-      </c>
-      <c r="F11" s="4">
-        <v>100501</v>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AJ13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AL13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="4">
-        <v>100502</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>100502</v>
-      </c>
-      <c r="F12" s="4">
-        <v>100502</v>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AJ14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AL14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="4">
-        <v>100503</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>100503</v>
-      </c>
-      <c r="F13" s="4">
-        <v>100503</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="4"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="4"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="4"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="4"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="4"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="4"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="4"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="4"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="4"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="4"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C24" s="4"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
